--- a/Accounts-Schedules/New_joiners.xlsx
+++ b/Accounts-Schedules/New_joiners.xlsx
@@ -836,15 +836,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -1434,76 +1431,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" ht="15.25"/>
-    <row r="3" ht="14.75" spans="1:5">
-      <c r="A3" s="9" t="s">
+    <row r="3" ht="15.25" spans="1:5">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="14.75" spans="1:5">
-      <c r="A4" s="12" t="s">
+    <row r="4" ht="15.25" spans="1:5">
+      <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="12">
         <v>1005356050</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" ht="14.75" spans="1:5">
-      <c r="A5" s="12" t="s">
+    <row r="5" ht="15.25" spans="1:5">
+      <c r="A5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="12">
         <v>1096416351</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" ht="14.75" spans="1:5">
-      <c r="A6" s="12" t="s">
+    <row r="6" ht="15.25" spans="1:5">
+      <c r="A6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="12">
         <v>1110326222</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="14" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1519,7 +1516,7 @@
   <dimension ref="B1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B3" sqref="B3:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="4"/>
@@ -1549,97 +1546,97 @@
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="14.75" spans="2:9">
-      <c r="B3" s="4">
+    <row r="3" ht="15.25" spans="2:9">
+      <c r="B3" s="3">
         <v>0.416666666666667</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>0.791666666666667</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>1005356050</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="14.75" spans="2:9">
-      <c r="B4" s="4">
+    <row r="4" ht="15.25" spans="2:9">
+      <c r="B4" s="3">
         <v>0.416666666666667</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>0.791666666666667</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>1096416351</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" ht="14.75" spans="2:9">
-      <c r="B5" s="4">
+    <row r="5" ht="15.25" spans="2:9">
+      <c r="B5" s="3">
         <v>0.416666666666667</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>0.791666666666667</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>1110326222</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Accounts-Schedules/New_joiners.xlsx
+++ b/Accounts-Schedules/New_joiners.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>Below is the list of new joiners scheduled to join us on Monday July 28th on our 5th Settlement premises, to start at 10:00 AM shift.</t>
   </si>
@@ -106,6 +106,18 @@
   </si>
   <si>
     <t>دائري</t>
+  </si>
+  <si>
+    <t>حسن فؤاد</t>
+  </si>
+  <si>
+    <t>ي - المعادي</t>
+  </si>
+  <si>
+    <t>اكاديمية السادات</t>
+  </si>
+  <si>
+    <t>Hassan Fouad</t>
   </si>
 </sst>
 </file>
@@ -1513,13 +1525,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:I5"/>
+  <dimension ref="B1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H5"/>
+      <selection activeCell="B3" sqref="B3:H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="5"/>
   <cols>
     <col min="2" max="2" width="10.1818181818182"/>
     <col min="3" max="3" width="9"/>
@@ -1640,6 +1652,32 @@
         <v>13</v>
       </c>
     </row>
+    <row r="6" ht="15.25" spans="2:9">
+      <c r="B6" s="3">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1115199182</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Accounts-Schedules/New_joiners.xlsx
+++ b/Accounts-Schedules/New_joiners.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="48">
   <si>
     <t>Below is the list of new joiners scheduled to join us on Monday July 28th on our 5th Settlement premises, to start at 10:00 AM shift.</t>
   </si>
@@ -78,6 +78,45 @@
     <t>السلام</t>
   </si>
   <si>
+    <t>Below is a list of new hires that will be joining us starting Monday August 18th To start at 10:00 AM shift and leave at 7:00 PM.</t>
+  </si>
+  <si>
+    <t>Mohamed Gamal</t>
+  </si>
+  <si>
+    <t>حلوان</t>
+  </si>
+  <si>
+    <t>صالح صبحي</t>
+  </si>
+  <si>
+    <t>Rafik Mansour</t>
+  </si>
+  <si>
+    <t>مدينة نصر</t>
+  </si>
+  <si>
+    <t>مسجد السلام</t>
+  </si>
+  <si>
+    <t>Mona Salah</t>
+  </si>
+  <si>
+    <t>فيصل</t>
+  </si>
+  <si>
+    <t>المريوطية</t>
+  </si>
+  <si>
+    <t>Ahmed Fayez</t>
+  </si>
+  <si>
+    <t>العشرين</t>
+  </si>
+  <si>
+    <t>SMART V.</t>
+  </si>
+  <si>
     <t>Monday July 28th on our 5th Settlement premises, to start at 10:00 AM shift.</t>
   </si>
   <si>
@@ -102,6 +141,9 @@
     <t>روكسي العبودي</t>
   </si>
   <si>
+    <t>OFF days Fri - Sat</t>
+  </si>
+  <si>
     <t>حسن عرفة</t>
   </si>
   <si>
@@ -118,6 +160,18 @@
   </si>
   <si>
     <t>Hassan Fouad</t>
+  </si>
+  <si>
+    <t>محمد جمال</t>
+  </si>
+  <si>
+    <t>حلوان و زهراء المعادي</t>
+  </si>
+  <si>
+    <t>رفيق منصور</t>
+  </si>
+  <si>
+    <t>منى صلاح</t>
   </si>
 </sst>
 </file>
@@ -131,7 +185,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,12 +194,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -161,6 +246,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -542,6 +634,21 @@
     </border>
     <border>
       <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color rgb="FF000000"/>
       </left>
       <right style="medium">
@@ -563,7 +670,7 @@
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -573,21 +680,6 @@
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
@@ -718,181 +810,214 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1427,13 +1552,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="14.3636363636364" customWidth="1"/>
     <col min="2" max="2" width="12.7272727272727" customWidth="1"/>
@@ -1443,77 +1568,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" ht="15.25"/>
     <row r="3" ht="15.25" spans="1:5">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" ht="15.25" spans="1:5">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="18">
         <v>1005356050</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="19" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" ht="15.25" spans="1:5">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="18">
         <v>1096416351</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" ht="15.25" spans="1:5">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="18">
         <v>1110326222</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="20" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" ht="15.25"/>
+    <row r="11" ht="15.25" spans="1:4">
+      <c r="A11" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" ht="15.25" spans="1:4">
+      <c r="A12" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="25">
+        <v>1094057169</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" ht="15.25" spans="1:4">
+      <c r="A13" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="25">
+        <v>1200098880</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" ht="15.25" spans="1:4">
+      <c r="A14" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="25">
+        <v>1063373593</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" ht="15.25" spans="1:5">
+      <c r="A15" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="25">
+        <v>1550134462</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1525,157 +1729,287 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:I6"/>
+  <dimension ref="B1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="10.1818181818182"/>
-    <col min="3" max="3" width="9"/>
-    <col min="4" max="4" width="14.3636363636364" customWidth="1"/>
-    <col min="5" max="5" width="12.7272727272727" customWidth="1"/>
-    <col min="6" max="6" width="33.0909090909091" customWidth="1"/>
-    <col min="7" max="7" width="15.9181818181818" customWidth="1"/>
-    <col min="8" max="8" width="17.5363636363636" customWidth="1"/>
-    <col min="9" max="9" width="14.3636363636364" customWidth="1"/>
+    <col min="1" max="1" width="8.72727272727273" style="1"/>
+    <col min="2" max="2" width="10.1818181818182" style="1"/>
+    <col min="3" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="14.3636363636364" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7272727272727" style="1" customWidth="1"/>
+    <col min="6" max="6" width="33.0909090909091" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.9181818181818" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5363636363636" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.3636363636364" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.72727272727273" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.25" spans="6:6">
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" ht="15.25" spans="2:9">
+      <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="15.25" spans="2:9">
+      <c r="B3" s="4">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1005356050</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" ht="15.25" spans="2:11">
+      <c r="B4" s="4">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1096416351</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" ht="15.25" spans="2:11">
+      <c r="B5" s="4">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1110326222</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" ht="15.25" spans="2:11">
+      <c r="B6" s="4">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1115199182</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="11:11">
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="11:11">
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="11:11">
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" ht="16.25" spans="6:11">
+      <c r="F10" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" ht="15.25" spans="2:9">
-      <c r="B2" s="2" t="s">
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" ht="15.25" spans="2:11">
+      <c r="B11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="4">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="D12" s="11">
+        <v>1094057169</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" ht="15.25" spans="2:9">
-      <c r="B3" s="3">
+      <c r="K12" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" ht="15.25" spans="2:9">
+      <c r="B13" s="4">
         <v>0.416666666666667</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C13" s="4">
         <v>0.791666666666667</v>
       </c>
-      <c r="D3" s="4">
-        <v>1005356050</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="D13" s="11">
+        <v>1200098880</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" ht="15.25" spans="2:9">
-      <c r="B4" s="3">
+    </row>
+    <row r="14" ht="15.25" spans="2:9">
+      <c r="B14" s="4">
         <v>0.416666666666667</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C14" s="4">
         <v>0.791666666666667</v>
       </c>
-      <c r="D4" s="4">
-        <v>1096416351</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="5" t="s">
+      <c r="D14" s="11">
+        <v>1063373593</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="12" t="s">
         <v>23</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" ht="15.25" spans="2:9">
-      <c r="B5" s="3">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1110326222</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" ht="15.25" spans="2:9">
-      <c r="B6" s="3">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1115199182</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Accounts-Schedules/New_joiners.xlsx
+++ b/Accounts-Schedules/New_joiners.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="68">
   <si>
     <t>Below is the list of new joiners scheduled to join us on Monday July 28th on our 5th Settlement premises, to start at 10:00 AM shift.</t>
   </si>
@@ -117,6 +117,12 @@
     <t>SMART V.</t>
   </si>
   <si>
+    <t>Israa Salah</t>
+  </si>
+  <si>
+    <t>المحكمة</t>
+  </si>
+  <si>
     <t>Monday July 28th on our 5th Settlement premises, to start at 10:00 AM shift.</t>
   </si>
   <si>
@@ -172,6 +178,62 @@
   </si>
   <si>
     <t>منى صلاح</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>Monday
+Transcom ID</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday
+Name</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>إسراء صلاح</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>Days</t>
+  </si>
+  <si>
+    <t>Shift</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>10:AM-7PM</t>
+  </si>
+  <si>
+    <t>10:AM-6PM</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Off</t>
   </si>
 </sst>
 </file>
@@ -403,7 +465,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -424,6 +486,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA6C9EC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -609,7 +683,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -689,6 +763,135 @@
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -816,7 +1019,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -828,119 +1031,119 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -980,6 +1183,48 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1018,6 +1263,21 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1552,10 +1812,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="4"/>
@@ -1568,76 +1828,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" ht="15.25"/>
     <row r="3" ht="15.25" spans="1:5">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="30" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" ht="15.25" spans="1:5">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="32">
         <v>1005356050</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="33" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" ht="15.25" spans="1:5">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="32">
         <v>1096416351</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="33" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" ht="15.25" spans="1:5">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="32">
         <v>1110326222</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="34" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1648,76 +1908,111 @@
     </row>
     <row r="10" ht="15.25"/>
     <row r="11" ht="15.25" spans="1:4">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="37" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" ht="15.25" spans="1:4">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12" s="39">
         <v>1094057169</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="39" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" ht="15.25" spans="1:4">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="25">
+      <c r="B13" s="39">
         <v>1200098880</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="39" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" ht="15.25" spans="1:4">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="25">
+      <c r="B14" s="39">
         <v>1063373593</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="39" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" ht="15.25" spans="1:5">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="25">
+      <c r="B15" s="39">
         <v>1550134462</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="39" t="s">
         <v>27</v>
       </c>
       <c r="E15" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="17" ht="15.25"/>
+    <row r="18" ht="15.25" spans="1:5">
+      <c r="A18" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" ht="15.25" spans="1:5">
+      <c r="A19" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="44">
+        <v>1065039320</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="44" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1729,7 +2024,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:K14"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:H6"/>
@@ -1737,35 +2032,33 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.72727272727273" style="1"/>
+    <col min="1" max="1" width="10.8181818181818" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.1818181818182" style="1"/>
-    <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="14.3636363636364" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7272727272727" style="1" customWidth="1"/>
-    <col min="6" max="6" width="33.0909090909091" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.9181818181818" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5363636363636" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.3636363636364" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.72727272727273" style="1"/>
+    <col min="3" max="6" width="9.09090909090909" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1818181818182" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.9090909090909" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="1" customWidth="1"/>
+    <col min="10" max="16" width="9.09090909090909" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.72727272727273" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.25" spans="6:6">
+    <row r="1" ht="16" customHeight="1" spans="6:6">
       <c r="F1" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" ht="15.25" spans="2:9">
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>1</v>
@@ -1791,10 +2084,10 @@
         <v>1005356050</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>8</v>
@@ -1817,22 +2110,22 @@
         <v>1096416351</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" ht="15.25" spans="2:11">
@@ -1846,13 +2139,13 @@
         <v>1110326222</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>15</v>
@@ -1873,19 +2166,19 @@
         <v>1115199182</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K6" s="2"/>
     </row>
@@ -1906,16 +2199,16 @@
     </row>
     <row r="11" ht="15.25" spans="2:11">
       <c r="B11" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>2</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>1</v>
@@ -1931,7 +2224,7 @@
       </c>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" ht="15.25" spans="2:11">
       <c r="B12" s="4">
         <v>0.416666666666667</v>
       </c>
@@ -1942,13 +2235,13 @@
         <v>1094057169</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H12" s="11" t="s">
         <v>19</v>
@@ -1957,7 +2250,7 @@
         <v>17</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" ht="15.25" spans="2:9">
@@ -1971,10 +2264,10 @@
         <v>1200098880</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>21</v>
@@ -1997,10 +2290,10 @@
         <v>1063373593</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>24</v>
@@ -2012,7 +2305,188 @@
         <v>23</v>
       </c>
     </row>
+    <row r="15" ht="15.25"/>
+    <row r="16" spans="1:16">
+      <c r="A16" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="15"/>
+      <c r="G16" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="J16" s="15"/>
+      <c r="K16" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L16" s="15"/>
+      <c r="M16" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="N16" s="15"/>
+      <c r="O16" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="P16" s="15"/>
+    </row>
+    <row r="17" ht="15.25" spans="1:16">
+      <c r="A17" s="16">
+        <v>10339433</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="18">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="D17" s="19">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="E17" s="18">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F17" s="19">
+        <v>0.75</v>
+      </c>
+      <c r="G17" s="18">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H17" s="19">
+        <v>0.75</v>
+      </c>
+      <c r="I17" s="18">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J17" s="19">
+        <v>0.75</v>
+      </c>
+      <c r="K17" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="L17" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="M17" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="N17" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="O17" s="18">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="P17" s="19">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="20">
+        <v>10339433</v>
+      </c>
+      <c r="C21" s="20"/>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="1">
+        <v>10339433</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1065039320</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/Accounts-Schedules/New_joiners.xlsx
+++ b/Accounts-Schedules/New_joiners.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="76">
   <si>
     <t>Below is the list of new joiners scheduled to join us on Monday July 28th on our 5th Settlement premises, to start at 10:00 AM shift.</t>
   </si>
@@ -178,6 +178,30 @@
   </si>
   <si>
     <t>منى صلاح</t>
+  </si>
+  <si>
+    <t>Tuesday September 2nd.To start at 10:00 AM shift and leave at 7:00 PM</t>
+  </si>
+  <si>
+    <t>مروان حنفي</t>
+  </si>
+  <si>
+    <t>التوحيد و النور</t>
+  </si>
+  <si>
+    <t>:Marwan Hanafy</t>
+  </si>
+  <si>
+    <t>مريان سليمان</t>
+  </si>
+  <si>
+    <t>العباسية و الضاهر</t>
+  </si>
+  <si>
+    <t>معرض علاء الدين</t>
+  </si>
+  <si>
+    <t>Marian Soliman</t>
   </si>
   <si>
     <t>ID</t>
@@ -247,7 +271,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,6 +315,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -1013,137 +1044,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1183,6 +1214,12 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -1204,20 +1241,23 @@
     <xf numFmtId="178" fontId="4" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1228,55 +1268,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1828,76 +1868,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" ht="15.25"/>
     <row r="3" ht="15.25" spans="1:5">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="33" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" ht="15.25" spans="1:5">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="35">
         <v>1005356050</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" ht="15.25" spans="1:5">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5" s="35">
         <v>1096416351</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="36" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" ht="15.25" spans="1:5">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="35">
         <v>1110326222</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="37" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1908,72 +1948,72 @@
     </row>
     <row r="10" ht="15.25"/>
     <row r="11" ht="15.25" spans="1:4">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="40" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" ht="15.25" spans="1:4">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="39">
+      <c r="B12" s="42">
         <v>1094057169</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="42" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" ht="15.25" spans="1:4">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="39">
+      <c r="B13" s="42">
         <v>1200098880</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="42" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" ht="15.25" spans="1:4">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="39">
+      <c r="B14" s="42">
         <v>1063373593</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="42" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" ht="15.25" spans="1:5">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="39">
+      <c r="B15" s="42">
         <v>1550134462</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="42" t="s">
         <v>27</v>
       </c>
       <c r="E15" t="s">
@@ -1982,36 +2022,36 @@
     </row>
     <row r="17" ht="15.25"/>
     <row r="18" ht="15.25" spans="1:5">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="C18" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="42" t="s">
+      <c r="D18" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="42" t="s">
+      <c r="E18" s="45" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" ht="15.25" spans="1:5">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="44">
+      <c r="B19" s="47">
         <v>1065039320</v>
       </c>
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="44" t="s">
+      <c r="D19" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="44" t="s">
+      <c r="E19" s="47" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2024,7 +2064,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:H6"/>
@@ -2033,7 +2073,7 @@
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="10.8181818181818" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1818181818182" style="1"/>
+    <col min="2" max="2" width="10.2727272727273" style="1"/>
     <col min="3" max="6" width="9.09090909090909" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.1818181818182" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.9090909090909" style="1" customWidth="1"/>
@@ -2185,46 +2225,95 @@
     <row r="7" spans="11:11">
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="11:11">
+    <row r="8" ht="16.25" spans="6:11">
+      <c r="F8" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="11:11">
+    <row r="9" ht="15.25" spans="2:11">
+      <c r="B9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" ht="16.25" spans="6:11">
-      <c r="F10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" ht="15.25" spans="2:11">
-      <c r="B11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" ht="15.25" spans="2:11">
+    <row r="10" ht="15.25" spans="2:11">
+      <c r="B10" s="4">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="D10" s="11">
+        <v>1094057169</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" ht="15.25" spans="2:9">
+      <c r="B11" s="4">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="D11" s="11">
+        <v>1200098880</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" ht="15.25" spans="2:9">
       <c r="B12" s="4">
         <v>0.416666666666667</v>
       </c>
@@ -2232,260 +2321,291 @@
         <v>0.791666666666667</v>
       </c>
       <c r="D12" s="11">
-        <v>1094057169</v>
+        <v>1063373593</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>35</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" ht="15.25" spans="6:6">
+      <c r="F14" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" ht="15.25" spans="2:9">
+      <c r="B15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" ht="15.25" spans="2:11">
+      <c r="B16" s="4">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="D16" s="11">
+        <v>1063902934</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="H12" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" s="2" t="s">
+      <c r="H16" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K16" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" ht="15.25" spans="2:9">
-      <c r="B13" s="4">
+    <row r="17" ht="15.25" spans="2:9">
+      <c r="B17" s="4">
         <v>0.416666666666667</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C17" s="4">
         <v>0.791666666666667</v>
       </c>
-      <c r="D13" s="11">
-        <v>1200098880</v>
-      </c>
-      <c r="E13" s="6" t="s">
+      <c r="D17" s="11">
+        <v>1201035557</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" ht="15.25" spans="2:9">
-      <c r="B14" s="4">
+      <c r="F17" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" ht="15.25"/>
+    <row r="19" spans="1:16">
+      <c r="A19" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="17"/>
+      <c r="E19" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="17"/>
+      <c r="G19" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" s="17"/>
+      <c r="I19" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="J19" s="17"/>
+      <c r="K19" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="L19" s="17"/>
+      <c r="M19" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="N19" s="17"/>
+      <c r="O19" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="P19" s="17"/>
+    </row>
+    <row r="20" ht="15.25" spans="1:16">
+      <c r="A20" s="18">
+        <v>10339433</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="20">
         <v>0.416666666666667</v>
       </c>
-      <c r="C14" s="4">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="D14" s="11">
-        <v>1063373593</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" ht="15.25"/>
-    <row r="16" spans="1:16">
-      <c r="A16" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="J16" s="15"/>
-      <c r="K16" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="L16" s="15"/>
-      <c r="M16" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="N16" s="15"/>
-      <c r="O16" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="P16" s="15"/>
-    </row>
-    <row r="17" ht="15.25" spans="1:16">
-      <c r="A17" s="16">
+      <c r="D20" s="21">
+        <v>0.75</v>
+      </c>
+      <c r="E20" s="20">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F20" s="21">
+        <v>0.75</v>
+      </c>
+      <c r="G20" s="20">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H20" s="21">
+        <v>0.75</v>
+      </c>
+      <c r="I20" s="20">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J20" s="21">
+        <v>0.75</v>
+      </c>
+      <c r="K20" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="L20" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="M20" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="N20" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="O20" s="20">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="P20" s="21">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" s="22">
         <v>10339433</v>
       </c>
-      <c r="B17" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="18">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="D17" s="19">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="E17" s="18">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="F17" s="19">
-        <v>0.75</v>
-      </c>
-      <c r="G17" s="18">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="H17" s="19">
-        <v>0.75</v>
-      </c>
-      <c r="I17" s="18">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="J17" s="19">
-        <v>0.75</v>
-      </c>
-      <c r="K17" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="L17" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="M17" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="N17" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="O17" s="18">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="P17" s="19">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="20">
+      <c r="C29" s="22"/>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32" s="1">
         <v>10339433</v>
       </c>
-      <c r="C21" s="20"/>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="23" t="s">
+      <c r="F32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I32" s="1">
+        <v>1065039320</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C34" s="26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="25" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="24" spans="2:9">
-      <c r="B24" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="24" t="s">
+      <c r="C35" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="1">
-        <v>10339433</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I24" s="1">
-        <v>1065039320</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="23" t="s">
+      <c r="C36" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="24" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3">
-      <c r="B27" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3">
-      <c r="B28" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3">
-      <c r="B29" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>65</v>
+      <c r="C37" s="26" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Accounts-Schedules/New_joiners.xlsx
+++ b/Accounts-Schedules/New_joiners.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="85">
   <si>
     <t>Below is the list of new joiners scheduled to join us on Monday July 28th on our 5th Settlement premises, to start at 10:00 AM shift.</t>
   </si>
@@ -202,6 +202,33 @@
   </si>
   <si>
     <t>Marian Soliman</t>
+  </si>
+  <si>
+    <t>starting next Monday September 8th and will start her shift at 10:00AM and finish at 7:00PM</t>
+  </si>
+  <si>
+    <t>ندى احمد</t>
+  </si>
+  <si>
+    <t>كورنيش المعادي</t>
+  </si>
+  <si>
+    <t>كوبري طره</t>
+  </si>
+  <si>
+    <t>Nada Ahmed</t>
+  </si>
+  <si>
+    <t>عفاف المنسي</t>
+  </si>
+  <si>
+    <t>التجمع و الرحاب</t>
+  </si>
+  <si>
+    <t>الغاز</t>
+  </si>
+  <si>
+    <t>Afaf Elmansy</t>
   </si>
   <si>
     <t>ID</t>
@@ -271,7 +298,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,6 +354,27 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -334,19 +382,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -1044,137 +1079,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1220,6 +1255,24 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -1241,19 +1294,19 @@
     <xf numFmtId="178" fontId="4" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1268,19 +1321,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1289,10 +1342,10 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1304,10 +1357,10 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1868,76 +1921,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" ht="15.25"/>
     <row r="3" ht="15.25" spans="1:5">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="39" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" ht="15.25" spans="1:5">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="35">
+      <c r="B4" s="41">
         <v>1005356050</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="42" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" ht="15.25" spans="1:5">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="35">
+      <c r="B5" s="41">
         <v>1096416351</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="42" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" ht="15.25" spans="1:5">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="35">
+      <c r="B6" s="41">
         <v>1110326222</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="43" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1948,72 +2001,72 @@
     </row>
     <row r="10" ht="15.25"/>
     <row r="11" ht="15.25" spans="1:4">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="40" t="s">
+      <c r="D11" s="46" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" ht="15.25" spans="1:4">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="42">
+      <c r="B12" s="48">
         <v>1094057169</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="48" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" ht="15.25" spans="1:4">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="42">
+      <c r="B13" s="48">
         <v>1200098880</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="D13" s="48" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" ht="15.25" spans="1:4">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="42">
+      <c r="B14" s="48">
         <v>1063373593</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="42" t="s">
+      <c r="D14" s="48" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" ht="15.25" spans="1:5">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="42">
+      <c r="B15" s="48">
         <v>1550134462</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="D15" s="48" t="s">
         <v>27</v>
       </c>
       <c r="E15" t="s">
@@ -2022,36 +2075,36 @@
     </row>
     <row r="17" ht="15.25"/>
     <row r="18" ht="15.25" spans="1:5">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="45" t="s">
+      <c r="C18" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="45" t="s">
+      <c r="D18" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="45" t="s">
+      <c r="E18" s="51" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" ht="15.25" spans="1:5">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="47">
+      <c r="B19" s="53">
         <v>1065039320</v>
       </c>
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="47" t="s">
+      <c r="D19" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="47" t="s">
+      <c r="E19" s="53" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2366,7 +2419,7 @@
       <c r="H15" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="27" t="s">
+      <c r="I15" s="33" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2425,121 +2478,207 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" ht="15.25"/>
-    <row r="19" spans="1:16">
-      <c r="A19" s="15" t="s">
+    <row r="19" ht="16.25" spans="6:6">
+      <c r="F19" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="15" t="s">
+    </row>
+    <row r="20" ht="15.25" spans="2:9">
+      <c r="B20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" ht="15.25" spans="2:11">
+      <c r="B21" s="4">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="D21" s="19">
+        <v>1121276600</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="G21" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="16" t="s">
+      <c r="H21" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="16" t="s">
+      <c r="I21" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="H19" s="17"/>
-      <c r="I19" s="16" t="s">
+      <c r="K21" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" ht="15.25" spans="2:9">
+      <c r="B22" s="4">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="D22" s="19">
+        <v>1020529547</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="J19" s="17"/>
-      <c r="K19" s="16" t="s">
+      <c r="G22" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="L19" s="17"/>
-      <c r="M19" s="16" t="s">
+      <c r="H22" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="N19" s="17"/>
-      <c r="O19" s="16" t="s">
+      <c r="I22" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="P19" s="17"/>
-    </row>
-    <row r="20" ht="15.25" spans="1:16">
-      <c r="A20" s="18">
+    </row>
+    <row r="23" ht="15.25"/>
+    <row r="24" spans="1:16">
+      <c r="A24" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="23"/>
+      <c r="E24" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" s="23"/>
+      <c r="G24" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="H24" s="23"/>
+      <c r="I24" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="J24" s="23"/>
+      <c r="K24" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="L24" s="23"/>
+      <c r="M24" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="N24" s="23"/>
+      <c r="O24" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="P24" s="23"/>
+    </row>
+    <row r="25" ht="15.25" spans="1:16">
+      <c r="A25" s="24">
         <v>10339433</v>
       </c>
-      <c r="B20" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="20">
+      <c r="B25" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="26">
         <v>0.416666666666667</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D25" s="27">
         <v>0.75</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E25" s="26">
         <v>0.416666666666667</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F25" s="27">
         <v>0.75</v>
       </c>
-      <c r="G20" s="20">
+      <c r="G25" s="26">
         <v>0.416666666666667</v>
       </c>
-      <c r="H20" s="21">
+      <c r="H25" s="27">
         <v>0.75</v>
       </c>
-      <c r="I20" s="20">
+      <c r="I25" s="26">
         <v>0.416666666666667</v>
       </c>
-      <c r="J20" s="21">
+      <c r="J25" s="27">
         <v>0.75</v>
       </c>
-      <c r="K20" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="L20" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="M20" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="N20" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="O20" s="20">
+      <c r="K25" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="L25" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="M25" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="N25" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="O25" s="26">
         <v>0.416666666666667</v>
       </c>
-      <c r="P20" s="21">
+      <c r="P25" s="27">
         <v>0.75</v>
       </c>
     </row>
     <row r="29" spans="2:3">
-      <c r="B29" s="22">
+      <c r="B29" s="28">
         <v>10339433</v>
       </c>
-      <c r="C29" s="22"/>
+      <c r="C29" s="28"/>
     </row>
     <row r="30" spans="2:3">
-      <c r="B30" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" s="24" t="s">
+      <c r="B30" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="31" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="31" spans="2:3">
-      <c r="B31" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31" s="26" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9">
-      <c r="B32" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>73</v>
+      <c r="C32" s="32" t="s">
+        <v>82</v>
       </c>
       <c r="E32" s="1">
         <v>10339433</v>
@@ -2551,61 +2690,61 @@
         <v>11</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="I32" s="1">
         <v>1065039320</v>
       </c>
     </row>
     <row r="33" spans="2:3">
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3">
-      <c r="B34" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" s="26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3">
-      <c r="B35" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C35" s="26" t="s">
+      <c r="C36" s="32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" s="31" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="36" spans="2:3">
-      <c r="B36" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C36" s="26" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3">
-      <c r="B37" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="C37" s="26" t="s">
-        <v>73</v>
+      <c r="C37" s="32" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:P24"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Accounts-Schedules/New_joiners.xlsx
+++ b/Accounts-Schedules/New_joiners.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="84">
   <si>
     <t>Below is the list of new joiners scheduled to join us on Monday July 28th on our 5th Settlement premises, to start at 10:00 AM shift.</t>
   </si>
@@ -210,10 +210,7 @@
     <t>ندى احمد</t>
   </si>
   <si>
-    <t>كورنيش المعادي</t>
-  </si>
-  <si>
-    <t>كوبري طره</t>
+    <t>شمال طرة كورنيش المعادي</t>
   </si>
   <si>
     <t>Nada Ahmed</t>
@@ -1209,7 +1206,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1334,9 +1331,6 @@
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1950,13 +1944,13 @@
       <c r="B4" s="41">
         <v>1005356050</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="19" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1967,13 +1961,13 @@
       <c r="B5" s="41">
         <v>1096416351</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="19" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1984,13 +1978,13 @@
       <c r="B6" s="41">
         <v>1110326222</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="42" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2001,72 +1995,72 @@
     </row>
     <row r="10" ht="15.25"/>
     <row r="11" ht="15.25" spans="1:4">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="46" t="s">
+      <c r="D11" s="45" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" ht="15.25" spans="1:4">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="48">
+      <c r="B12" s="47">
         <v>1094057169</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="48" t="s">
+      <c r="D12" s="47" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" ht="15.25" spans="1:4">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="48">
+      <c r="B13" s="47">
         <v>1200098880</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="48" t="s">
+      <c r="D13" s="47" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" ht="15.25" spans="1:4">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="48">
+      <c r="B14" s="47">
         <v>1063373593</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="48" t="s">
+      <c r="D14" s="47" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" ht="15.25" spans="1:5">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="48">
+      <c r="B15" s="47">
         <v>1550134462</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="48" t="s">
+      <c r="D15" s="47" t="s">
         <v>27</v>
       </c>
       <c r="E15" t="s">
@@ -2075,36 +2069,36 @@
     </row>
     <row r="17" ht="15.25"/>
     <row r="18" ht="15.25" spans="1:5">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="51" t="s">
+      <c r="C18" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="51" t="s">
+      <c r="D18" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="51" t="s">
+      <c r="E18" s="50" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" ht="15.25" spans="1:5">
-      <c r="A19" s="52" t="s">
+      <c r="A19" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="53">
+      <c r="B19" s="52">
         <v>1065039320</v>
       </c>
-      <c r="C19" s="53" t="s">
+      <c r="C19" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="53" t="s">
+      <c r="D19" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="53" t="s">
+      <c r="E19" s="52" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2509,7 +2503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" ht="15.25" spans="2:11">
+    <row r="21" spans="2:11">
       <c r="B21" s="4">
         <v>0.416666666666667</v>
       </c>
@@ -2526,13 +2520,13 @@
         <v>59</v>
       </c>
       <c r="G21" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="H21" s="19" t="s">
+      <c r="I21" s="20" t="s">
         <v>61</v>
-      </c>
-      <c r="I21" s="20" t="s">
-        <v>62</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>39</v>
@@ -2552,52 +2546,52 @@
         <v>35</v>
       </c>
       <c r="F22" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="G22" s="19" t="s">
+      <c r="H22" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="H22" s="19" t="s">
+      <c r="I22" s="20" t="s">
         <v>65</v>
-      </c>
-      <c r="I22" s="20" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="23" ht="15.25"/>
     <row r="24" spans="1:16">
       <c r="A24" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="C24" s="22" t="s">
         <v>68</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>69</v>
       </c>
       <c r="D24" s="23"/>
       <c r="E24" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F24" s="23"/>
       <c r="G24" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H24" s="23"/>
       <c r="I24" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J24" s="23"/>
       <c r="K24" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L24" s="23"/>
       <c r="M24" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N24" s="23"/>
       <c r="O24" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P24" s="23"/>
     </row>
@@ -2606,7 +2600,7 @@
         <v>10339433</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C25" s="26">
         <v>0.416666666666667</v>
@@ -2633,16 +2627,16 @@
         <v>0.75</v>
       </c>
       <c r="K25" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L25" s="35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M25" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N25" s="35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O25" s="26">
         <v>0.416666666666667</v>
@@ -2659,26 +2653,26 @@
     </row>
     <row r="30" spans="2:3">
       <c r="B30" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="30" t="s">
         <v>78</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="32" t="s">
         <v>80</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="32" spans="2:9">
       <c r="B32" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E32" s="1">
         <v>10339433</v>
@@ -2690,7 +2684,7 @@
         <v>11</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I32" s="1">
         <v>1065039320</v>
@@ -2698,42 +2692,42 @@
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C37" s="32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Accounts-Schedules/New_joiners.xlsx
+++ b/Accounts-Schedules/New_joiners.xlsx
@@ -219,7 +219,7 @@
     <t>عفاف المنسي</t>
   </si>
   <si>
-    <t>التجمع و الرحاب</t>
+    <t>م - الرحاب و التجمع</t>
   </si>
   <si>
     <t>الغاز</t>
@@ -2503,7 +2503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" ht="15.25" spans="2:11">
       <c r="B21" s="4">
         <v>0.416666666666667</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" ht="15.25" spans="2:9">
+    <row r="22" spans="2:9">
       <c r="B22" s="4">
         <v>0.416666666666667</v>
       </c>

--- a/Accounts-Schedules/New_joiners.xlsx
+++ b/Accounts-Schedules/New_joiners.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="84">
   <si>
     <t>Below is the list of new joiners scheduled to join us on Monday July 28th on our 5th Settlement premises, to start at 10:00 AM shift.</t>
   </si>
@@ -123,24 +123,24 @@
     <t>المحكمة</t>
   </si>
   <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>Transcom ID</t>
+  </si>
+  <si>
+    <t>New Joiner</t>
+  </si>
+  <si>
+    <t>شادي احمد</t>
+  </si>
+  <si>
     <t>Monday July 28th on our 5th Settlement premises, to start at 10:00 AM shift.</t>
   </si>
   <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>End</t>
-  </si>
-  <si>
-    <t>Transcom ID</t>
-  </si>
-  <si>
-    <t>New Joiner</t>
-  </si>
-  <si>
-    <t>شادي احمد</t>
-  </si>
-  <si>
     <t>هنا اشرف</t>
   </si>
   <si>
@@ -180,18 +180,18 @@
     <t>منى صلاح</t>
   </si>
   <si>
+    <t>مروان حنفي</t>
+  </si>
+  <si>
+    <t>التوحيد و النور</t>
+  </si>
+  <si>
+    <t>:Marwan Hanafy</t>
+  </si>
+  <si>
     <t>Tuesday September 2nd.To start at 10:00 AM shift and leave at 7:00 PM</t>
   </si>
   <si>
-    <t>مروان حنفي</t>
-  </si>
-  <si>
-    <t>التوحيد و النور</t>
-  </si>
-  <si>
-    <t>:Marwan Hanafy</t>
-  </si>
-  <si>
     <t>مريان سليمان</t>
   </si>
   <si>
@@ -204,16 +204,16 @@
     <t>Marian Soliman</t>
   </si>
   <si>
+    <t>ندى احمد</t>
+  </si>
+  <si>
+    <t>شمال طرة كورنيش المعادي</t>
+  </si>
+  <si>
+    <t>Nada Ahmed</t>
+  </si>
+  <si>
     <t>starting next Monday September 8th and will start her shift at 10:00AM and finish at 7:00PM</t>
-  </si>
-  <si>
-    <t>ندى احمد</t>
-  </si>
-  <si>
-    <t>شمال طرة كورنيش المعادي</t>
-  </si>
-  <si>
-    <t>Nada Ahmed</t>
   </si>
   <si>
     <t>عفاف المنسي</t>
@@ -295,7 +295,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,6 +307,53 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -318,20 +365,8 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -341,21 +376,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -365,25 +392,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -528,7 +536,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -543,6 +551,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -622,12 +648,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -766,36 +786,6 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -955,6 +945,36 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1076,88 +1096,82 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1166,10 +1180,10 @@
     <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1178,10 +1192,10 @@
     <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1190,10 +1204,10 @@
     <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1202,168 +1216,183 @@
     <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1633,6 +1662,11 @@
       <tableStyleElement type="pageFieldValues" dxfId="7"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="00F43308"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1915,76 +1949,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" ht="15.25"/>
     <row r="3" ht="15.25" spans="1:5">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="41" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" ht="15.25" spans="1:5">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="41">
+      <c r="B4" s="43">
         <v>1005356050</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="44" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" ht="15.25" spans="1:5">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="41">
+      <c r="B5" s="43">
         <v>1096416351</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="44" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" ht="15.25" spans="1:5">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="41">
+      <c r="B6" s="43">
         <v>1110326222</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="45" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1995,72 +2029,72 @@
     </row>
     <row r="10" ht="15.25"/>
     <row r="11" ht="15.25" spans="1:4">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="45" t="s">
+      <c r="D11" s="48" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" ht="15.25" spans="1:4">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="47">
+      <c r="B12" s="50">
         <v>1094057169</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="50" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" ht="15.25" spans="1:4">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="47">
+      <c r="B13" s="50">
         <v>1200098880</v>
       </c>
-      <c r="C13" s="47" t="s">
+      <c r="C13" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="47" t="s">
+      <c r="D13" s="50" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" ht="15.25" spans="1:4">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="47">
+      <c r="B14" s="50">
         <v>1063373593</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="47" t="s">
+      <c r="D14" s="50" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" ht="15.25" spans="1:5">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="47">
+      <c r="B15" s="50">
         <v>1550134462</v>
       </c>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="47" t="s">
+      <c r="D15" s="50" t="s">
         <v>27</v>
       </c>
       <c r="E15" t="s">
@@ -2069,36 +2103,36 @@
     </row>
     <row r="17" ht="15.25"/>
     <row r="18" ht="15.25" spans="1:5">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="50" t="s">
+      <c r="D18" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="50" t="s">
+      <c r="E18" s="53" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" ht="15.25" spans="1:5">
-      <c r="A19" s="51" t="s">
+      <c r="A19" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="52">
+      <c r="B19" s="55">
         <v>1065039320</v>
       </c>
-      <c r="C19" s="52" t="s">
+      <c r="C19" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="52" t="s">
+      <c r="D19" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="52" t="s">
+      <c r="E19" s="55" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2111,634 +2145,547 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P37"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H6"/>
+      <selection activeCell="B3" sqref="B3:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="10.8181818181818" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.2727272727273" style="1"/>
-    <col min="3" max="6" width="9.09090909090909" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1818181818182" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.9090909090909" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1818181818182" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.4545454545455" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7272727272727" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.2727272727273" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5363636363636" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7909090909091" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.3636363636364" style="1" customWidth="1"/>
     <col min="10" max="16" width="9.09090909090909" style="1" customWidth="1"/>
     <col min="17" max="16384" width="8.72727272727273" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1" spans="6:6">
-      <c r="F1" s="2" t="s">
+    <row r="1" ht="16" customHeight="1"/>
+    <row r="2" ht="15.25" spans="2:9">
+      <c r="B2" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" ht="15.25" spans="2:9">
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="15.25" spans="2:11">
+      <c r="B3" s="3">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1005356050</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" ht="15.25" spans="2:9">
-      <c r="B3" s="4">
+      <c r="F3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" ht="15.25" spans="2:11">
+      <c r="B4" s="3">
         <v>0.416666666666667</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C4" s="3">
         <v>0.791666666666667</v>
       </c>
-      <c r="D3" s="5">
-        <v>1005356050</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" ht="15.25" spans="2:11">
-      <c r="B4" s="4">
+      <c r="D4" s="4">
+        <v>1096416351</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" ht="15.25" spans="2:11">
+      <c r="B5" s="3">
         <v>0.416666666666667</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C5" s="3">
         <v>0.791666666666667</v>
       </c>
-      <c r="D4" s="5">
-        <v>1096416351</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="6" t="s">
+      <c r="D5" s="4">
+        <v>1110326222</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="32"/>
+    </row>
+    <row r="6" ht="15.25" spans="2:11">
+      <c r="B6" s="3">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1115199182</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="32"/>
+    </row>
+    <row r="7" ht="16.25" spans="2:11">
+      <c r="B7" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1094057169</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" ht="15.25" spans="2:11">
+      <c r="B8" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1200098880</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" ht="15.25" spans="2:9">
+      <c r="B9" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1063373593</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" ht="15.25" spans="2:11">
+      <c r="B10" s="11">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="D10" s="12">
+        <v>1063902934</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" ht="15.25" spans="2:11">
+      <c r="B11" s="11">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C11" s="11">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="D11" s="12">
+        <v>1201035557</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" s="31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" ht="16.25" spans="2:11">
+      <c r="B12" s="15">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C12" s="15">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="D12" s="16">
+        <v>1121276600</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="K12" s="35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" ht="15.25" spans="2:11">
+      <c r="B13" s="15">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C13" s="15">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="D13" s="16">
+        <v>1020529547</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="K13" s="31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" ht="15.25"/>
+    <row r="15" spans="1:16">
+      <c r="A15" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="21"/>
+      <c r="E15" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" s="21"/>
+      <c r="I15" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" s="21"/>
+      <c r="K15" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="L15" s="21"/>
+      <c r="M15" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="N15" s="21"/>
+      <c r="O15" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="P15" s="21"/>
+    </row>
+    <row r="16" ht="15.25" spans="1:16">
+      <c r="A16" s="22">
+        <v>10339433</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="24">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="D16" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="E16" s="24">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F16" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="G16" s="24">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H16" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="I16" s="24">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="J16" s="25">
+        <v>0.75</v>
+      </c>
+      <c r="K16" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="L16" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="M16" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="N16" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="O16" s="24">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="P16" s="25">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="26">
+        <v>10339433</v>
+      </c>
+      <c r="C20" s="26"/>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="1">
+        <v>10339433</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" ht="15.25" spans="2:11">
-      <c r="B5" s="4">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="D5" s="5">
-        <v>1110326222</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" ht="15.25" spans="2:11">
-      <c r="B6" s="4">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1115199182</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="11:11">
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" ht="16.25" spans="6:11">
-      <c r="F8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" ht="15.25" spans="2:11">
-      <c r="B9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" ht="15.25" spans="2:11">
-      <c r="B10" s="4">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="D10" s="11">
-        <v>1094057169</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" ht="15.25" spans="2:9">
-      <c r="B11" s="4">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="D11" s="11">
-        <v>1200098880</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" ht="15.25" spans="2:9">
-      <c r="B12" s="4">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="D12" s="11">
-        <v>1063373593</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" ht="15.25" spans="6:6">
-      <c r="F14" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" ht="15.25" spans="2:9">
-      <c r="B15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="33" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" ht="15.25" spans="2:11">
-      <c r="B16" s="4">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C16" s="4">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="D16" s="11">
-        <v>1063902934</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" ht="15.25" spans="2:9">
-      <c r="B17" s="4">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C17" s="4">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="D17" s="11">
-        <v>1201035557</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" ht="16.25" spans="6:6">
-      <c r="F19" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" ht="15.25" spans="2:9">
-      <c r="B20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" ht="15.25" spans="2:11">
-      <c r="B21" s="4">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C21" s="4">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="D21" s="19">
-        <v>1121276600</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="H21" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="I21" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9">
-      <c r="B22" s="4">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C22" s="4">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="D22" s="19">
-        <v>1020529547</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="H22" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="I22" s="20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" ht="15.25"/>
-    <row r="24" spans="1:16">
-      <c r="A24" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="F24" s="23"/>
-      <c r="G24" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="H24" s="23"/>
-      <c r="I24" s="22" t="s">
+      <c r="H23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1065039320</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="J24" s="23"/>
-      <c r="K24" s="22" t="s">
+      <c r="C25" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="L24" s="23"/>
-      <c r="M24" s="22" t="s">
+      <c r="C26" s="30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="N24" s="23"/>
-      <c r="O24" s="22" t="s">
+      <c r="C27" s="30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="P24" s="23"/>
-    </row>
-    <row r="25" ht="15.25" spans="1:16">
-      <c r="A25" s="24">
-        <v>10339433</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="26">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="D25" s="27">
-        <v>0.75</v>
-      </c>
-      <c r="E25" s="26">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="F25" s="27">
-        <v>0.75</v>
-      </c>
-      <c r="G25" s="26">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="H25" s="27">
-        <v>0.75</v>
-      </c>
-      <c r="I25" s="26">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="J25" s="27">
-        <v>0.75</v>
-      </c>
-      <c r="K25" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="L25" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="M25" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="N25" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="O25" s="26">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="P25" s="27">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3">
-      <c r="B29" s="28">
-        <v>10339433</v>
-      </c>
-      <c r="C29" s="28"/>
-    </row>
-    <row r="30" spans="2:3">
-      <c r="B30" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3">
-      <c r="B31" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9">
-      <c r="B32" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="E32" s="1">
-        <v>10339433</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I32" s="1">
-        <v>1065039320</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3">
-      <c r="B33" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="C33" s="32" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3">
-      <c r="B34" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" s="32" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3">
-      <c r="B35" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" s="32" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3">
-      <c r="B36" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" s="32" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3">
-      <c r="B37" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C37" s="32" t="s">
+      <c r="C28" s="30" t="s">
         <v>81</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Accounts-Schedules/New_joiners.xlsx
+++ b/Accounts-Schedules/New_joiners.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="66">
   <si>
     <t>Below is the list of new joiners scheduled to join us on Monday July 28th on our 5th Settlement premises, to start at 10:00 AM shift.</t>
   </si>
@@ -226,62 +226,6 @@
   </si>
   <si>
     <t>Afaf Elmansy</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>NAME</t>
-  </si>
-  <si>
-    <t>Monday
-Transcom ID</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>Wednesday
-Name</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>Friday</t>
-  </si>
-  <si>
-    <t>Saturday</t>
-  </si>
-  <si>
-    <t>Sunday</t>
-  </si>
-  <si>
-    <t>إسراء صلاح</t>
-  </si>
-  <si>
-    <t>OFF</t>
-  </si>
-  <si>
-    <t>Days</t>
-  </si>
-  <si>
-    <t>Shift</t>
-  </si>
-  <si>
-    <t>Monday</t>
-  </si>
-  <si>
-    <t>10:AM-7PM</t>
-  </si>
-  <si>
-    <t>10:AM-6PM</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t>Off</t>
   </si>
 </sst>
 </file>
@@ -295,7 +239,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,10 +282,26 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -357,28 +317,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -536,7 +474,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -575,12 +513,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA6C9EC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00FFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -766,7 +698,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -816,135 +748,6 @@
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1096,52 +899,55 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1156,77 +962,74 @@
     <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1284,115 +1087,73 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1949,76 +1710,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" ht="15.25"/>
     <row r="3" ht="15.25" spans="1:5">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="27" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" ht="15.25" spans="1:5">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="43">
+      <c r="B4" s="29">
         <v>1005356050</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="30" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" ht="15.25" spans="1:5">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="43">
+      <c r="B5" s="29">
         <v>1096416351</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="30" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" ht="15.25" spans="1:5">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="43">
+      <c r="B6" s="29">
         <v>1110326222</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="31" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2029,72 +1790,72 @@
     </row>
     <row r="10" ht="15.25"/>
     <row r="11" ht="15.25" spans="1:4">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="48" t="s">
+      <c r="D11" s="34" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" ht="15.25" spans="1:4">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="50">
+      <c r="B12" s="36">
         <v>1094057169</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="50" t="s">
+      <c r="D12" s="36" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" ht="15.25" spans="1:4">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="50">
+      <c r="B13" s="36">
         <v>1200098880</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="50" t="s">
+      <c r="D13" s="36" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" ht="15.25" spans="1:4">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="50">
+      <c r="B14" s="36">
         <v>1063373593</v>
       </c>
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="50" t="s">
+      <c r="D14" s="36" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" ht="15.25" spans="1:5">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="50">
+      <c r="B15" s="36">
         <v>1550134462</v>
       </c>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="36" t="s">
         <v>27</v>
       </c>
       <c r="E15" t="s">
@@ -2103,36 +1864,36 @@
     </row>
     <row r="17" ht="15.25"/>
     <row r="18" ht="15.25" spans="1:5">
-      <c r="A18" s="51" t="s">
+      <c r="A18" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="52" t="s">
+      <c r="B18" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="53" t="s">
+      <c r="C18" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="53" t="s">
+      <c r="D18" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="53" t="s">
+      <c r="E18" s="39" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" ht="15.25" spans="1:5">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="55">
+      <c r="B19" s="41">
         <v>1065039320</v>
       </c>
-      <c r="C19" s="55" t="s">
+      <c r="C19" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="55" t="s">
+      <c r="D19" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="55" t="s">
+      <c r="E19" s="41" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2145,7 +1906,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P28"/>
+  <dimension ref="B1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:H13"/>
@@ -2218,7 +1979,7 @@
       <c r="I3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="31" t="s">
+      <c r="K3" s="19" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2247,7 +2008,7 @@
       <c r="I4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="31" t="s">
+      <c r="K4" s="19" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2276,7 +2037,7 @@
       <c r="I5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="32"/>
+      <c r="K5" s="20"/>
     </row>
     <row r="6" ht="15.25" spans="2:11">
       <c r="B6" s="3">
@@ -2303,7 +2064,7 @@
       <c r="I6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="32"/>
+      <c r="K6" s="20"/>
     </row>
     <row r="7" ht="16.25" spans="2:11">
       <c r="B7" s="7">
@@ -2330,7 +2091,7 @@
       <c r="I7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="33" t="s">
+      <c r="K7" s="21" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2359,7 +2120,7 @@
       <c r="I8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="31" t="s">
+      <c r="K8" s="19" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2411,10 +2172,10 @@
       <c r="H10" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="I10" s="34" t="s">
+      <c r="I10" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="K10" s="31" t="s">
+      <c r="K10" s="19" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2440,10 +2201,10 @@
       <c r="H11" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="I11" s="34" t="s">
+      <c r="I11" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="K11" s="31" t="s">
+      <c r="K11" s="19" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2472,7 +2233,7 @@
       <c r="I12" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="K12" s="35" t="s">
+      <c r="K12" s="23" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2501,192 +2262,11 @@
       <c r="I13" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="K13" s="31" t="s">
+      <c r="K13" s="19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" ht="15.25"/>
-    <row r="15" spans="1:16">
-      <c r="A15" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="H15" s="21"/>
-      <c r="I15" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="J15" s="21"/>
-      <c r="K15" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="L15" s="21"/>
-      <c r="M15" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="N15" s="21"/>
-      <c r="O15" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="P15" s="21"/>
-    </row>
-    <row r="16" ht="15.25" spans="1:16">
-      <c r="A16" s="22">
-        <v>10339433</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="24">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="D16" s="25">
-        <v>0.75</v>
-      </c>
-      <c r="E16" s="24">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="F16" s="25">
-        <v>0.75</v>
-      </c>
-      <c r="G16" s="24">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="H16" s="25">
-        <v>0.75</v>
-      </c>
-      <c r="I16" s="24">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="J16" s="25">
-        <v>0.75</v>
-      </c>
-      <c r="K16" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="L16" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="M16" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="N16" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="O16" s="24">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="P16" s="25">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="26">
-        <v>10339433</v>
-      </c>
-      <c r="C20" s="26"/>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9">
-      <c r="B23" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="E23" s="1">
-        <v>10339433</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I23" s="1">
-        <v>1065039320</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3">
-      <c r="B27" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3">
-      <c r="B28" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>81</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/Accounts-Schedules/New_joiners.xlsx
+++ b/Accounts-Schedules/New_joiners.xlsx
@@ -239,7 +239,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,6 +271,20 @@
       <b/>
       <sz val="10"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -279,13 +293,6 @@
       <sz val="10"/>
       <color theme="0"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -899,133 +906,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1063,97 +1070,97 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="178" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1909,7 +1916,7 @@
   <dimension ref="B1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H13"/>
+      <selection activeCell="B13" sqref="B3:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -2124,7 +2131,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" ht="15.25" spans="2:9">
+    <row r="9" spans="2:9">
       <c r="B9" s="7">
         <v>0.416666666666667</v>
       </c>

--- a/Accounts-Schedules/New_joiners.xlsx
+++ b/Accounts-Schedules/New_joiners.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="75">
   <si>
     <t>Below is the list of new joiners scheduled to join us on Monday July 28th on our 5th Settlement premises, to start at 10:00 AM shift.</t>
   </si>
@@ -226,6 +226,33 @@
   </si>
   <si>
     <t>Afaf Elmansy</t>
+  </si>
+  <si>
+    <t>يارا محمد</t>
+  </si>
+  <si>
+    <t>حدائق الاهرام</t>
+  </si>
+  <si>
+    <t>بوابة 2 جديدة</t>
+  </si>
+  <si>
+    <t>لحد اخر شهر 10</t>
+  </si>
+  <si>
+    <t>عمر خالد</t>
+  </si>
+  <si>
+    <t>التحرير</t>
+  </si>
+  <si>
+    <t>مستشفى احمد ماهر</t>
+  </si>
+  <si>
+    <t>شروق حمدي</t>
+  </si>
+  <si>
+    <t>بوابة 13</t>
   </si>
 </sst>
 </file>
@@ -481,7 +508,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -514,6 +541,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -705,7 +738,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -755,6 +788,21 @@
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -912,7 +960,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -924,119 +972,119 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1094,6 +1142,15 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="178" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1112,55 +1169,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1717,76 +1774,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" ht="15.25"/>
     <row r="3" ht="15.25" spans="1:5">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="30" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" ht="15.25" spans="1:5">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="32">
         <v>1005356050</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="33" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" ht="15.25" spans="1:5">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="32">
         <v>1096416351</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="33" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" ht="15.25" spans="1:5">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="32">
         <v>1110326222</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="34" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1797,72 +1854,72 @@
     </row>
     <row r="10" ht="15.25"/>
     <row r="11" ht="15.25" spans="1:4">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="37" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" ht="15.25" spans="1:4">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="36">
+      <c r="B12" s="39">
         <v>1094057169</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="39" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" ht="15.25" spans="1:4">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="36">
+      <c r="B13" s="39">
         <v>1200098880</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="39" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" ht="15.25" spans="1:4">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="36">
+      <c r="B14" s="39">
         <v>1063373593</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="39" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" ht="15.25" spans="1:5">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="36">
+      <c r="B15" s="39">
         <v>1550134462</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="39" t="s">
         <v>27</v>
       </c>
       <c r="E15" t="s">
@@ -1871,36 +1928,36 @@
     </row>
     <row r="17" ht="15.25"/>
     <row r="18" ht="15.25" spans="1:5">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="39" t="s">
+      <c r="E18" s="42" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" ht="15.25" spans="1:5">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="41">
+      <c r="B19" s="44">
         <v>1065039320</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="41" t="s">
+      <c r="D19" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="41" t="s">
+      <c r="E19" s="44" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1913,7 +1970,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:K13"/>
+  <dimension ref="B1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B13" sqref="B3:H13"/>
@@ -1986,7 +2043,7 @@
       <c r="I3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="22" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2015,7 +2072,7 @@
       <c r="I4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="22" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2044,7 +2101,7 @@
       <c r="I5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="20"/>
+      <c r="K5" s="23"/>
     </row>
     <row r="6" ht="15.25" spans="2:11">
       <c r="B6" s="3">
@@ -2071,7 +2128,7 @@
       <c r="I6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="20"/>
+      <c r="K6" s="23"/>
     </row>
     <row r="7" ht="16.25" spans="2:11">
       <c r="B7" s="7">
@@ -2098,7 +2155,7 @@
       <c r="I7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="21" t="s">
+      <c r="K7" s="24" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2127,11 +2184,11 @@
       <c r="I8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="19" t="s">
+      <c r="K8" s="22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
+    <row r="9" ht="15.25" spans="2:9">
       <c r="B9" s="7">
         <v>0.416666666666667</v>
       </c>
@@ -2179,10 +2236,10 @@
       <c r="H10" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="I10" s="22" t="s">
+      <c r="I10" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="K10" s="19" t="s">
+      <c r="K10" s="22" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2208,10 +2265,10 @@
       <c r="H11" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="I11" s="22" t="s">
+      <c r="I11" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="K11" s="19" t="s">
+      <c r="K11" s="22" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2240,7 +2297,7 @@
       <c r="I12" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="K12" s="23" t="s">
+      <c r="K12" s="26" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2269,9 +2326,87 @@
       <c r="I13" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="K13" s="19" t="s">
+      <c r="K13" s="22" t="s">
         <v>39</v>
       </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="19">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C16" s="19">
+        <v>0.75</v>
+      </c>
+      <c r="D16" s="20">
+        <v>1126921574</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="I16" s="20"/>
+      <c r="J16" s="22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="19">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C17" s="19">
+        <v>0.75</v>
+      </c>
+      <c r="D17" s="20">
+        <v>1123440286</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="I17" s="20"/>
+      <c r="J17" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="19">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C18" s="19">
+        <v>0.75</v>
+      </c>
+      <c r="D18" s="20">
+        <v>1095121114</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="I18" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Accounts-Schedules/New_joiners.xlsx
+++ b/Accounts-Schedules/New_joiners.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="73">
   <si>
     <t>Below is the list of new joiners scheduled to join us on Monday July 28th on our 5th Settlement premises, to start at 10:00 AM shift.</t>
   </si>
@@ -148,12 +148,6 @@
   </si>
   <si>
     <t>OFF days Fri - Sat</t>
-  </si>
-  <si>
-    <t>حسن عرفة</t>
-  </si>
-  <si>
-    <t>دائري</t>
   </si>
   <si>
     <t>حسن فؤاد</t>
@@ -1970,10 +1964,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:K18"/>
+  <dimension ref="B1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B3:H13"/>
+      <selection activeCell="B3" sqref="B3:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -2047,7 +2041,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" ht="15.25" spans="2:11">
+    <row r="4" spans="2:11">
       <c r="B4" s="3">
         <v>0.416666666666667</v>
       </c>
@@ -2076,7 +2070,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" ht="15.25" spans="2:11">
+    <row r="5" spans="2:11">
       <c r="B5" s="3">
         <v>0.416666666666667</v>
       </c>
@@ -2084,7 +2078,7 @@
         <v>0.791666666666667</v>
       </c>
       <c r="D5" s="4">
-        <v>1110326222</v>
+        <v>1115199182</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>34</v>
@@ -2096,41 +2090,43 @@
         <v>41</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="K5" s="23"/>
     </row>
-    <row r="6" ht="15.25" spans="2:11">
-      <c r="B6" s="3">
+    <row r="6" ht="16.25" spans="2:11">
+      <c r="B6" s="7">
         <v>0.416666666666667</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="7">
         <v>0.791666666666667</v>
       </c>
-      <c r="D6" s="4">
-        <v>1115199182</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="8">
+        <v>1094057169</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="6" t="s">
+      <c r="F6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="G6" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="23"/>
-    </row>
-    <row r="7" ht="16.25" spans="2:11">
+      <c r="H6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" ht="15.25" spans="2:11">
       <c r="B7" s="7">
         <v>0.416666666666667</v>
       </c>
@@ -2138,7 +2134,7 @@
         <v>0.791666666666667</v>
       </c>
       <c r="D7" s="8">
-        <v>1094057169</v>
+        <v>1200098880</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>34</v>
@@ -2147,19 +2143,19 @@
         <v>46</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" ht="15.25" spans="2:11">
+        <v>20</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" ht="15.25" spans="2:9">
       <c r="B8" s="7">
         <v>0.416666666666667</v>
       </c>
@@ -2167,51 +2163,51 @@
         <v>0.791666666666667</v>
       </c>
       <c r="D8" s="8">
-        <v>1200098880</v>
+        <v>1063373593</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>34</v>
       </c>
       <c r="F8" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" ht="15.25" spans="2:11">
+      <c r="B9" s="11">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C9" s="11">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="D9" s="12">
+        <v>1063902934</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" ht="15.25" spans="2:9">
-      <c r="B9" s="7">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C9" s="7">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="D9" s="8">
-        <v>1063373593</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="10" t="s">
+      <c r="G9" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>23</v>
+      <c r="I9" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="K9" s="22" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="10" ht="15.25" spans="2:11">
@@ -2222,57 +2218,57 @@
         <v>0.791666666666667</v>
       </c>
       <c r="D10" s="12">
-        <v>1063902934</v>
+        <v>1201035557</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>34</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K10" s="22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" ht="15.25" spans="2:11">
-      <c r="B11" s="11">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" ht="16.25" spans="2:11">
+      <c r="B11" s="15">
         <v>0.416666666666667</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="15">
         <v>0.791666666666667</v>
       </c>
-      <c r="D11" s="12">
-        <v>1201035557</v>
-      </c>
-      <c r="E11" s="13" t="s">
+      <c r="D11" s="16">
+        <v>1121276600</v>
+      </c>
+      <c r="E11" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="12" t="s">
+      <c r="F11" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="I11" s="25" t="s">
+      <c r="G11" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="K11" s="22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" ht="16.25" spans="2:11">
+      <c r="I11" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" s="26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" ht="15.25" spans="2:11">
       <c r="B12" s="15">
         <v>0.416666666666667</v>
       </c>
@@ -2280,54 +2276,52 @@
         <v>0.791666666666667</v>
       </c>
       <c r="D12" s="16">
-        <v>1121276600</v>
+        <v>1020529547</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>34</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="K12" s="26" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" ht="15.25" spans="2:11">
-      <c r="B13" s="15">
+        <v>63</v>
+      </c>
+      <c r="K12" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="19">
         <v>0.416666666666667</v>
       </c>
-      <c r="C13" s="15">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="D13" s="16">
-        <v>1020529547</v>
-      </c>
-      <c r="E13" s="17" t="s">
+      <c r="C15" s="19">
+        <v>0.75</v>
+      </c>
+      <c r="D15" s="20">
+        <v>1126921574</v>
+      </c>
+      <c r="E15" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="H13" s="16" t="s">
+      <c r="F15" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="I13" s="18" t="s">
+      <c r="G15" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="K13" s="22" t="s">
-        <v>39</v>
+      <c r="H15" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="I15" s="20"/>
+      <c r="J15" s="22" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="2:10">
@@ -2338,26 +2332,26 @@
         <v>0.75</v>
       </c>
       <c r="D16" s="20">
-        <v>1126921574</v>
+        <v>1123440286</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>34</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
       <c r="B17" s="19">
         <v>0.416666666666667</v>
       </c>
@@ -2365,48 +2359,21 @@
         <v>0.75</v>
       </c>
       <c r="D17" s="20">
-        <v>1123440286</v>
+        <v>1095121114</v>
       </c>
       <c r="E17" s="21" t="s">
         <v>34</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="H17" s="20" t="s">
         <v>72</v>
       </c>
       <c r="I17" s="20"/>
-      <c r="J17" s="22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="19">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C18" s="19">
-        <v>0.75</v>
-      </c>
-      <c r="D18" s="20">
-        <v>1095121114</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="H18" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="I18" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Accounts-Schedules/New_joiners.xlsx
+++ b/Accounts-Schedules/New_joiners.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="56">
   <si>
     <t>Below is the list of new joiners scheduled to join us on Monday July 28th on our 5th Settlement premises, to start at 10:00 AM shift.</t>
   </si>
@@ -135,69 +135,30 @@
     <t>New Joiner</t>
   </si>
   <si>
-    <t>شادي احمد</t>
+    <t>هنا اشرف</t>
+  </si>
+  <si>
+    <t>روكسي العبودي</t>
   </si>
   <si>
     <t>Monday July 28th on our 5th Settlement premises, to start at 10:00 AM shift.</t>
   </si>
   <si>
-    <t>هنا اشرف</t>
-  </si>
-  <si>
-    <t>روكسي العبودي</t>
+    <t>حسن فؤاد</t>
+  </si>
+  <si>
+    <t>ي - المعادي</t>
+  </si>
+  <si>
+    <t>اكاديمية السادات</t>
+  </si>
+  <si>
+    <t>Hassan Fouad</t>
   </si>
   <si>
     <t>OFF days Fri - Sat</t>
   </si>
   <si>
-    <t>حسن فؤاد</t>
-  </si>
-  <si>
-    <t>ي - المعادي</t>
-  </si>
-  <si>
-    <t>اكاديمية السادات</t>
-  </si>
-  <si>
-    <t>Hassan Fouad</t>
-  </si>
-  <si>
-    <t>محمد جمال</t>
-  </si>
-  <si>
-    <t>حلوان و زهراء المعادي</t>
-  </si>
-  <si>
-    <t>رفيق منصور</t>
-  </si>
-  <si>
-    <t>منى صلاح</t>
-  </si>
-  <si>
-    <t>مروان حنفي</t>
-  </si>
-  <si>
-    <t>التوحيد و النور</t>
-  </si>
-  <si>
-    <t>:Marwan Hanafy</t>
-  </si>
-  <si>
-    <t>Tuesday September 2nd.To start at 10:00 AM shift and leave at 7:00 PM</t>
-  </si>
-  <si>
-    <t>مريان سليمان</t>
-  </si>
-  <si>
-    <t>العباسية و الضاهر</t>
-  </si>
-  <si>
-    <t>معرض علاء الدين</t>
-  </si>
-  <si>
-    <t>Marian Soliman</t>
-  </si>
-  <si>
     <t>ندى احمد</t>
   </si>
   <si>
@@ -207,43 +168,31 @@
     <t>Nada Ahmed</t>
   </si>
   <si>
-    <t>starting next Monday September 8th and will start her shift at 10:00AM and finish at 7:00PM</t>
-  </si>
-  <si>
-    <t>عفاف المنسي</t>
+    <t>يارا محمد</t>
+  </si>
+  <si>
+    <t>حدائق الاهرام</t>
+  </si>
+  <si>
+    <t>بوابة 2 جديدة</t>
+  </si>
+  <si>
+    <t>لحد اخر شهر 10</t>
+  </si>
+  <si>
+    <t>عمر خالد</t>
+  </si>
+  <si>
+    <t>التحرير</t>
+  </si>
+  <si>
+    <t>مستشفى احمد ماهر</t>
+  </si>
+  <si>
+    <t>شروق حمدي</t>
   </si>
   <si>
     <t>م - الرحاب و التجمع</t>
-  </si>
-  <si>
-    <t>الغاز</t>
-  </si>
-  <si>
-    <t>Afaf Elmansy</t>
-  </si>
-  <si>
-    <t>يارا محمد</t>
-  </si>
-  <si>
-    <t>حدائق الاهرام</t>
-  </si>
-  <si>
-    <t>بوابة 2 جديدة</t>
-  </si>
-  <si>
-    <t>لحد اخر شهر 10</t>
-  </si>
-  <si>
-    <t>عمر خالد</t>
-  </si>
-  <si>
-    <t>التحرير</t>
-  </si>
-  <si>
-    <t>مستشفى احمد ماهر</t>
-  </si>
-  <si>
-    <t>شروق حمدي</t>
   </si>
   <si>
     <t>بوابة 13</t>
@@ -260,7 +209,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,20 +241,6 @@
       <b/>
       <sz val="10"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -318,18 +253,10 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -523,97 +450,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="-0.25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -948,137 +875,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1103,115 +1030,82 @@
     <xf numFmtId="178" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1768,76 +1662,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" ht="15.25"/>
     <row r="3" ht="15.25" spans="1:5">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="19" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" ht="15.25" spans="1:5">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="21">
         <v>1005356050</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" ht="15.25" spans="1:5">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5" s="21">
         <v>1096416351</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" ht="15.25" spans="1:5">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="21">
         <v>1110326222</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="23" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1848,72 +1742,72 @@
     </row>
     <row r="10" ht="15.25"/>
     <row r="11" ht="15.25" spans="1:4">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="26" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" ht="15.25" spans="1:4">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="39">
+      <c r="B12" s="28">
         <v>1094057169</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="28" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" ht="15.25" spans="1:4">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="39">
+      <c r="B13" s="28">
         <v>1200098880</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="28" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" ht="15.25" spans="1:4">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="39">
+      <c r="B14" s="28">
         <v>1063373593</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="28" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" ht="15.25" spans="1:5">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="39">
+      <c r="B15" s="28">
         <v>1550134462</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="28" t="s">
         <v>27</v>
       </c>
       <c r="E15" t="s">
@@ -1922,36 +1816,36 @@
     </row>
     <row r="17" ht="15.25"/>
     <row r="18" ht="15.25" spans="1:5">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="C18" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="42" t="s">
+      <c r="D18" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="42" t="s">
+      <c r="E18" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" ht="15.25" spans="1:5">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="44">
+      <c r="B19" s="33">
         <v>1065039320</v>
       </c>
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="44" t="s">
+      <c r="D19" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="44" t="s">
+      <c r="E19" s="33" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1964,10 +1858,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:K17"/>
+  <dimension ref="B1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H12"/>
+      <selection activeCell="B3" sqref="B3:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -1986,7 +1880,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1"/>
-    <row r="2" ht="15.25" spans="2:9">
+    <row r="2" spans="2:9">
       <c r="B2" s="2" t="s">
         <v>31</v>
       </c>
@@ -2012,7 +1906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="15.25" spans="2:11">
+    <row r="3" spans="2:11">
       <c r="B3" s="3">
         <v>0.416666666666667</v>
       </c>
@@ -2020,7 +1914,7 @@
         <v>0.791666666666667</v>
       </c>
       <c r="D3" s="4">
-        <v>1005356050</v>
+        <v>1096416351</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>34</v>
@@ -2029,19 +1923,19 @@
         <v>35</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11">
+        <v>10</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" ht="15.25" spans="2:11">
       <c r="B4" s="3">
         <v>0.416666666666667</v>
       </c>
@@ -2049,331 +1943,146 @@
         <v>0.791666666666667</v>
       </c>
       <c r="D4" s="4">
-        <v>1096416351</v>
+        <v>1115199182</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>34</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" ht="15.25" spans="2:11">
+      <c r="B5" s="7">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1121276600</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="2:11">
-      <c r="B5" s="3">
+      <c r="H5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="11">
         <v>0.416666666666667</v>
       </c>
-      <c r="C5" s="3">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1115199182</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="C6" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="D6" s="12">
+        <v>1126921574</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="6" t="s">
+      <c r="F6" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="12"/>
+      <c r="J6" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6"/>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="11">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="D7" s="12">
+        <v>1123440286</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5" s="23"/>
-    </row>
-    <row r="6" ht="16.25" spans="2:11">
-      <c r="B6" s="7">
+      <c r="K7"/>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="11">
         <v>0.416666666666667</v>
       </c>
-      <c r="C6" s="7">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="D6" s="8">
-        <v>1094057169</v>
-      </c>
-      <c r="E6" s="9" t="s">
+      <c r="C8" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="D8" s="12">
+        <v>1095121114</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" ht="15.25" spans="2:11">
-      <c r="B7" s="7">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="D7" s="8">
-        <v>1200098880</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" ht="15.25" spans="2:9">
-      <c r="B8" s="7">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="D8" s="8">
-        <v>1063373593</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" ht="15.25" spans="2:11">
-      <c r="B9" s="11">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C9" s="11">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="D9" s="12">
-        <v>1063902934</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="I9" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="K9" s="22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" ht="15.25" spans="2:11">
-      <c r="B10" s="11">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C10" s="11">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="D10" s="12">
-        <v>1201035557</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="12" t="s">
+      <c r="F8" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="G8" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="I10" s="25" t="s">
+      <c r="H8" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="K10" s="22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" ht="16.25" spans="2:11">
-      <c r="B11" s="15">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C11" s="15">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="D11" s="16">
-        <v>1121276600</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" s="26" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" ht="15.25" spans="2:11">
-      <c r="B12" s="15">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C12" s="15">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="D12" s="16">
-        <v>1020529547</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="K12" s="22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10">
-      <c r="B15" s="19">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C15" s="19">
-        <v>0.75</v>
-      </c>
-      <c r="D15" s="20">
-        <v>1126921574</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="H15" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
-      <c r="B16" s="19">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C16" s="19">
-        <v>0.75</v>
-      </c>
-      <c r="D16" s="20">
-        <v>1123440286</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="H16" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="19">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C17" s="19">
-        <v>0.75</v>
-      </c>
-      <c r="D17" s="20">
-        <v>1095121114</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="I17" s="20"/>
+      <c r="I8" s="12"/>
+      <c r="K8"/>
+    </row>
+    <row r="9" spans="11:11">
+      <c r="K9"/>
+    </row>
+    <row r="10" spans="11:11">
+      <c r="K10"/>
+    </row>
+    <row r="11" spans="11:11">
+      <c r="K11"/>
+    </row>
+    <row r="12" spans="11:11">
+      <c r="K12"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Accounts-Schedules/New_joiners.xlsx
+++ b/Accounts-Schedules/New_joiners.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -10,6 +10,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$C$2:$J$10</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -28,9 +31,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="56">
-  <si>
-    <t>Below is the list of new joiners scheduled to join us on Monday July 28th on our 5th Settlement premises, to start at 10:00 AM shift.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="68">
+  <si>
+    <t>Kindly find below the info for the new joiners who will be joining us starting next Monday, November 17th at our 5th settlement location.</t>
+  </si>
+  <si>
+    <t>Shift start: 10:00 AM</t>
+  </si>
+  <si>
+    <t>Shift end: 7:00 PM</t>
   </si>
   <si>
     <t>Name</t>
@@ -39,106 +48,136 @@
     <t>Number</t>
   </si>
   <si>
+    <t>route</t>
+  </si>
+  <si>
+    <t>Point</t>
+  </si>
+  <si>
     <t>Status</t>
   </si>
   <si>
+    <t>Alaa Mohamed</t>
+  </si>
+  <si>
+    <t>دائري</t>
+  </si>
+  <si>
+    <t>قليوب</t>
+  </si>
+  <si>
+    <t>unreachable</t>
+  </si>
+  <si>
+    <t>Heba Raslan</t>
+  </si>
+  <si>
+    <t>زهراء المعادي</t>
+  </si>
+  <si>
+    <t>التوحيد والنور</t>
+  </si>
+  <si>
+    <t>Reachable</t>
+  </si>
+  <si>
+    <t>Ahmed Adel</t>
+  </si>
+  <si>
+    <t>جسر السويس</t>
+  </si>
+  <si>
+    <t>الجراج</t>
+  </si>
+  <si>
+    <t>Mohamed Hassan</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>I apologize for work</t>
+  </si>
+  <si>
+    <t>Mohamed Soliman</t>
+  </si>
+  <si>
+    <t>حلوان</t>
+  </si>
+  <si>
+    <t>صالح صبحي</t>
+  </si>
+  <si>
+    <t>Merna Ebada</t>
+  </si>
+  <si>
+    <t>فيصل</t>
+  </si>
+  <si>
+    <t>العروبه</t>
+  </si>
+  <si>
+    <t>Hady Abdelmoneam</t>
+  </si>
+  <si>
+    <t>Shahd Wael</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>Transcom ID</t>
+  </si>
+  <si>
+    <t>New Joiner</t>
+  </si>
+  <si>
+    <t>احمد عادل</t>
+  </si>
+  <si>
+    <t>الزيتون و مصر الجديدة</t>
+  </si>
+  <si>
+    <t>هبة رسلان</t>
+  </si>
+  <si>
+    <t>حلوان و زهراء المعادي</t>
+  </si>
+  <si>
+    <t>محمد سليمان</t>
+  </si>
+  <si>
+    <t>هادي عبد المنعم</t>
+  </si>
+  <si>
+    <t>شهد وائل</t>
+  </si>
+  <si>
+    <t>علاء محمد</t>
+  </si>
+  <si>
+    <t>ميرنا عبادة</t>
+  </si>
+  <si>
+    <t>محمد حسن</t>
+  </si>
+  <si>
     <t>Area</t>
   </si>
   <si>
     <t>Pick up point</t>
   </si>
   <si>
-    <t>Shady Ahmed</t>
-  </si>
-  <si>
-    <t>Has been added to Whatsapp group</t>
-  </si>
-  <si>
-    <t>م - المقطم</t>
-  </si>
-  <si>
-    <t>النافورة</t>
+    <t>هنا اشرف</t>
+  </si>
+  <si>
+    <t>روكسي العبودي</t>
   </si>
   <si>
     <t>Hana Ashraf</t>
-  </si>
-  <si>
-    <t>الزيتون و مصر الجديدة</t>
-  </si>
-  <si>
-    <t>روكسي - صيدلية التحرير</t>
-  </si>
-  <si>
-    <t>Hassan Arafa</t>
-  </si>
-  <si>
-    <t>العبور - دائري</t>
-  </si>
-  <si>
-    <t>السلام</t>
-  </si>
-  <si>
-    <t>Below is a list of new hires that will be joining us starting Monday August 18th To start at 10:00 AM shift and leave at 7:00 PM.</t>
-  </si>
-  <si>
-    <t>Mohamed Gamal</t>
-  </si>
-  <si>
-    <t>حلوان</t>
-  </si>
-  <si>
-    <t>صالح صبحي</t>
-  </si>
-  <si>
-    <t>Rafik Mansour</t>
-  </si>
-  <si>
-    <t>مدينة نصر</t>
-  </si>
-  <si>
-    <t>مسجد السلام</t>
-  </si>
-  <si>
-    <t>Mona Salah</t>
-  </si>
-  <si>
-    <t>فيصل</t>
-  </si>
-  <si>
-    <t>المريوطية</t>
-  </si>
-  <si>
-    <t>Ahmed Fayez</t>
-  </si>
-  <si>
-    <t>العشرين</t>
-  </si>
-  <si>
-    <t>SMART V.</t>
-  </si>
-  <si>
-    <t>Israa Salah</t>
-  </si>
-  <si>
-    <t>المحكمة</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>End</t>
-  </si>
-  <si>
-    <t>Transcom ID</t>
-  </si>
-  <si>
-    <t>New Joiner</t>
-  </si>
-  <si>
-    <t>هنا اشرف</t>
-  </si>
-  <si>
-    <t>روكسي العبودي</t>
   </si>
   <si>
     <t>Monday July 28th on our 5th Settlement premises, to start at 10:00 AM shift.</t>
@@ -209,7 +248,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="h:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,6 +264,19 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -259,26 +311,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -438,6 +470,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF0B5394"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -456,24 +500,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="-0.25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00FFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -659,12 +691,147 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="23">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -709,21 +876,6 @@
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -875,137 +1027,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1013,100 +1165,91 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1116,7 +1259,7 @@
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
     <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
     <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
     <cellStyle name="Note" xfId="8" builtinId="10"/>
     <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
@@ -1646,10 +1789,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A7:E18"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:B19"/>
+      <selection activeCell="D10" sqref="A10:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="4"/>
@@ -1661,192 +1804,172 @@
     <col min="5" max="5" width="17.5363636363636" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="16" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="15.25"/>
-    <row r="3" ht="15.25" spans="1:5">
-      <c r="A3" s="17" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+    </row>
+    <row r="9" ht="15.25" spans="1:1">
+      <c r="A9" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="19" t="s">
+    </row>
+    <row r="10" ht="15.25" spans="1:5">
+      <c r="A10" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="B10" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="C10" s="28" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" ht="15.25" spans="1:5">
-      <c r="A4" s="20" t="s">
+      <c r="D10" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="21">
-        <v>1005356050</v>
-      </c>
-      <c r="C4" s="22" t="s">
+      <c r="E10" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="22" t="s">
+    </row>
+    <row r="11" ht="15.25" spans="1:5">
+      <c r="A11" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="B11" s="30">
+        <v>1023151819</v>
+      </c>
+      <c r="C11" s="30" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" ht="15.25" spans="1:5">
-      <c r="A5" s="20" t="s">
+      <c r="D11" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="21">
-        <v>1096416351</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="22" t="s">
+      <c r="E11" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="22" t="s">
+    </row>
+    <row r="12" ht="15.25" spans="1:5">
+      <c r="A12" s="29" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" ht="15.25" spans="1:5">
-      <c r="A6" s="20" t="s">
+      <c r="B12" s="30">
+        <v>1002105332</v>
+      </c>
+      <c r="C12" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="21">
-        <v>1110326222</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="22" t="s">
+      <c r="D12" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E12" s="30" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+    <row r="13" ht="15.25" spans="1:5">
+      <c r="A13" s="29" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" ht="15.25"/>
-    <row r="11" ht="15.25" spans="1:4">
-      <c r="A11" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" ht="15.25" spans="1:4">
-      <c r="A12" s="27" t="s">
+      <c r="B13" s="30">
+        <v>1508397610</v>
+      </c>
+      <c r="C13" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="28">
-        <v>1094057169</v>
-      </c>
-      <c r="C12" s="28" t="s">
+      <c r="D13" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="E13" s="30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" ht="15.25" spans="1:5">
+      <c r="A14" s="29" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" ht="15.25" spans="1:4">
-      <c r="A13" s="27" t="s">
+      <c r="B14" s="30">
+        <v>1555206925</v>
+      </c>
+      <c r="C14" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="28">
-        <v>1200098880</v>
-      </c>
-      <c r="C13" s="28" t="s">
+      <c r="D14" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="28" t="s">
+    </row>
+    <row r="15" ht="15.25" spans="1:5">
+      <c r="A15" s="29" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" ht="15.25" spans="1:4">
-      <c r="A14" s="27" t="s">
+      <c r="B15" s="30">
+        <v>1158808766</v>
+      </c>
+      <c r="C15" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="28">
-        <v>1063373593</v>
-      </c>
-      <c r="C14" s="28" t="s">
+      <c r="D15" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="E15" s="30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" ht="15.25" spans="1:5">
+      <c r="A16" s="29" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" ht="15.25" spans="1:5">
-      <c r="A15" s="27" t="s">
+      <c r="B16" s="30">
+        <v>1091400410</v>
+      </c>
+      <c r="C16" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="28">
-        <v>1550134462</v>
-      </c>
-      <c r="C15" s="28" t="s">
+      <c r="D16" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" ht="15.25" spans="1:5">
+      <c r="A17" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="30">
+        <v>1014383050</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" ht="15.25"/>
+      <c r="E17" s="30" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="18" ht="15.25" spans="1:5">
       <c r="A18" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="31" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" ht="15.25" spans="1:5">
-      <c r="A19" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="33">
-        <v>1065039320</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>30</v>
+      <c r="B18" s="30">
+        <v>1063790715</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1858,224 +1981,259 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:K12"/>
+  <dimension ref="B1:K89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H8"/>
+      <selection activeCell="I9" sqref="C3:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="10.8181818181818" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.1818181818182" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.4545454545455" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.36363636363636" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.7272727272727" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.2727272727273" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5363636363636" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7909090909091" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.8181818181818" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5454545454545" style="1" customWidth="1"/>
     <col min="8" max="8" width="18.7" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.3636363636364" style="1" customWidth="1"/>
-    <col min="10" max="16" width="9.09090909090909" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6363636363636" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5454545454545" style="1" customWidth="1"/>
+    <col min="11" max="16" width="9.09090909090909" style="1" customWidth="1"/>
     <col min="17" max="16384" width="8.72727272727273" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1"/>
-    <row r="2" spans="2:9">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="3:10">
+      <c r="C2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="3:10">
+      <c r="C3" s="4">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1508397610</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11">
-      <c r="B3" s="3">
+      <c r="G3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="3:10">
+      <c r="C4" s="4">
         <v>0.416666666666667</v>
       </c>
-      <c r="C3" s="3">
+      <c r="D4" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D3" s="4">
-        <v>1096416351</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="5" t="s">
+      <c r="E4" s="6">
+        <v>1002105332</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="H4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10">
+      <c r="C5" s="4">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1158808766</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10">
+      <c r="C6" s="4">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1014383050</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10">
+      <c r="C7" s="4">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1063790715</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10">
+      <c r="C8" s="4">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1023151819</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" ht="15.25" spans="2:11">
-      <c r="B4" s="3">
+      <c r="J8" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11">
+      <c r="C9" s="4">
         <v>0.416666666666667</v>
       </c>
-      <c r="C4" s="3">
+      <c r="D9" s="5">
         <v>0.791666666666667</v>
       </c>
-      <c r="D4" s="4">
-        <v>1115199182</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" s="14" t="s">
+      <c r="E9" s="6">
+        <v>1091400410</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="5" ht="15.25" spans="2:11">
-      <c r="B5" s="7">
+      <c r="H9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9"/>
+    </row>
+    <row r="10" spans="3:11">
+      <c r="C10" s="7">
         <v>0.416666666666667</v>
       </c>
-      <c r="C5" s="7">
+      <c r="D10" s="8">
         <v>0.791666666666667</v>
       </c>
-      <c r="D5" s="8">
-        <v>1121276600</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="10" t="s">
+      <c r="E10" s="9">
+        <v>1555206925</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="K5" s="15"/>
-    </row>
-    <row r="6" spans="2:11">
-      <c r="B6" s="11">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C6" s="11">
-        <v>0.75</v>
-      </c>
-      <c r="D6" s="12">
-        <v>1126921574</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="K6"/>
-    </row>
-    <row r="7" spans="2:11">
-      <c r="B7" s="11">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C7" s="11">
-        <v>0.75</v>
-      </c>
-      <c r="D7" s="12">
-        <v>1123440286</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="K7"/>
-    </row>
-    <row r="8" spans="2:11">
-      <c r="B8" s="11">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C8" s="11">
-        <v>0.75</v>
-      </c>
-      <c r="D8" s="12">
-        <v>1095121114</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8" s="12"/>
-      <c r="K8"/>
-    </row>
-    <row r="9" spans="11:11">
-      <c r="K9"/>
-    </row>
-    <row r="10" spans="11:11">
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="K10"/>
     </row>
     <row r="11" spans="11:11">
@@ -2084,7 +2242,206 @@
     <row r="12" spans="11:11">
       <c r="K12"/>
     </row>
+    <row r="82" ht="15.25"/>
+    <row r="83" ht="15.25" spans="2:9">
+      <c r="B83" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D83" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F83" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H83" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I83" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" ht="15.25" spans="2:11">
+      <c r="B84" s="14">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C84" s="14">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="D84" s="15">
+        <v>1096416351</v>
+      </c>
+      <c r="E84" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F84" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G84" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H84" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="K84" s="25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="85" ht="15.25" spans="2:11">
+      <c r="B85" s="14">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C85" s="14">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="D85" s="15">
+        <v>1115199182</v>
+      </c>
+      <c r="E85" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F85" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G85" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H85" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="I85" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K85" s="25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="86" ht="15.25" spans="2:11">
+      <c r="B86" s="18">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C86" s="18">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="D86" s="19">
+        <v>1121276600</v>
+      </c>
+      <c r="E86" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F86" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G86" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="H86" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="I86" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="K86" s="26"/>
+    </row>
+    <row r="87" spans="2:11">
+      <c r="B87" s="22">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C87" s="22">
+        <v>0.75</v>
+      </c>
+      <c r="D87" s="23">
+        <v>1126921574</v>
+      </c>
+      <c r="E87" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F87" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="G87" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="H87" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="I87" s="23"/>
+      <c r="J87" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="K87"/>
+    </row>
+    <row r="88" spans="2:11">
+      <c r="B88" s="22">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C88" s="22">
+        <v>0.75</v>
+      </c>
+      <c r="D88" s="23">
+        <v>1123440286</v>
+      </c>
+      <c r="E88" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F88" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G88" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="H88" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="I88" s="23"/>
+      <c r="J88" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="K88"/>
+    </row>
+    <row r="89" spans="2:11">
+      <c r="B89" s="22">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C89" s="22">
+        <v>0.75</v>
+      </c>
+      <c r="D89" s="23">
+        <v>1095121114</v>
+      </c>
+      <c r="E89" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F89" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="G89" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="H89" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="I89" s="23"/>
+      <c r="K89"/>
+    </row>
   </sheetData>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="C2:J10" etc:filterBottomFollowUsedRange="0">
+    <sortState ref="C2:J10">
+      <sortCondition ref="H2"/>
+    </sortState>
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
